--- a/Design/Normalisation.xlsx
+++ b/Design/Normalisation.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="50">
   <si>
     <t>UNF</t>
   </si>
@@ -149,9 +149,6 @@
     <t>PubInvoiceOrder</t>
   </si>
   <si>
-    <t>PubInvoiceTotal</t>
-  </si>
-  <si>
     <t>*RoyaltiesID</t>
   </si>
   <si>
@@ -170,16 +167,13 @@
     <t>RoyaltiesItems</t>
   </si>
   <si>
-    <t>InvoiceItems</t>
-  </si>
-  <si>
-    <t>*InvoiceItems</t>
-  </si>
-  <si>
-    <t>*RoyaltiesItems</t>
-  </si>
-  <si>
     <t>ExcRateToGBP</t>
+  </si>
+  <si>
+    <t>PubInvoicePayment</t>
+  </si>
+  <si>
+    <t>BooksInvoiceItems</t>
   </si>
 </sst>
 </file>
@@ -463,7 +457,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -517,9 +511,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -549,9 +540,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -587,6 +575,52 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -605,59 +639,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -947,8 +938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -961,21 +952,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="50" t="s">
+      <c r="D1" s="63"/>
+      <c r="E1" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="51"/>
-      <c r="G1" s="52"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="66"/>
       <c r="H1" s="14"/>
       <c r="I1" s="14"/>
       <c r="J1" s="14"/>
@@ -988,7 +979,7 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="53" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="10" t="s">
@@ -1015,7 +1006,7 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="54" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -1025,11 +1016,11 @@
       <c r="E3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="30" t="s">
-        <v>46</v>
+      <c r="F3" s="29" t="s">
+        <v>45</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
@@ -1042,7 +1033,7 @@
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="54" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -1052,11 +1043,11 @@
       <c r="E4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>45</v>
+      <c r="F4" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>34</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
@@ -1065,11 +1056,11 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="54" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -1079,11 +1070,11 @@
       <c r="E5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>49</v>
+      <c r="F5" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>35</v>
       </c>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
@@ -1092,11 +1083,11 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="54" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1106,12 +1097,10 @@
       <c r="E6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>34</v>
-      </c>
+      <c r="F6" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="13"/>
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
       <c r="K6" s="1"/>
@@ -1119,11 +1108,11 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="54" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -1133,12 +1122,8 @@
       <c r="E7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="41" t="s">
-        <v>35</v>
-      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="4"/>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
       <c r="K7" s="1"/>
@@ -1150,7 +1135,7 @@
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="54" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -1160,8 +1145,8 @@
       <c r="E8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="42"/>
-      <c r="G8" s="13"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="4"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
       <c r="K8" s="1"/>
@@ -1173,12 +1158,12 @@
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="60"/>
-      <c r="C9" s="23"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="22"/>
       <c r="D9" s="3"/>
       <c r="E9" s="13"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="4"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="5"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
       <c r="K9" s="1"/>
@@ -1190,23 +1175,23 @@
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="54" t="s">
+      <c r="E10" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" s="56" t="s">
-        <v>48</v>
+      <c r="F10" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="48" t="s">
+        <v>49</v>
       </c>
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
@@ -1219,23 +1204,23 @@
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="56" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="38" t="s">
+      <c r="E11" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="49" t="s">
         <v>42</v>
-      </c>
-      <c r="G11" s="57" t="s">
-        <v>43</v>
       </c>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
@@ -1249,23 +1234,23 @@
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="57" t="s">
         <v>31</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="55" t="s">
+      <c r="E12" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="38" t="s">
+      <c r="F12" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="50" t="s">
         <v>44</v>
-      </c>
-      <c r="G12" s="58" t="s">
-        <v>45</v>
       </c>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -1274,34 +1259,34 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="47"/>
-      <c r="R12" s="47"/>
-      <c r="S12" s="47"/>
-      <c r="T12" s="47"/>
-      <c r="U12" s="47"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="61"/>
+      <c r="R12" s="61"/>
+      <c r="S12" s="61"/>
+      <c r="T12" s="61"/>
+      <c r="U12" s="61"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="67" t="s">
+      <c r="B13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>44</v>
+      <c r="C13" s="57" t="s">
+        <v>43</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="39" t="s">
+      <c r="F13" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="58" t="s">
+      <c r="G13" s="50" t="s">
         <v>37</v>
       </c>
       <c r="H13" s="14"/>
@@ -1311,34 +1296,34 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="44"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="44"/>
-      <c r="T13" s="44"/>
-      <c r="U13" s="44"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="42"/>
+      <c r="T13" s="42"/>
+      <c r="U13" s="42"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="67" t="s">
+      <c r="B14" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="57" t="s">
         <v>24</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="E14" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="39" t="s">
+      <c r="F14" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="58" t="s">
+      <c r="G14" s="50" t="s">
         <v>36</v>
       </c>
       <c r="H14" s="1"/>
@@ -1348,34 +1333,34 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="29"/>
-      <c r="U14" s="29"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="28"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="57" t="s">
         <v>25</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="39" t="s">
+      <c r="F15" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="58" t="s">
+      <c r="G15" s="50" t="s">
         <v>21</v>
       </c>
       <c r="H15" s="14"/>
@@ -1385,34 +1370,34 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="29"/>
-      <c r="T15" s="29"/>
-      <c r="U15" s="29"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="28"/>
     </row>
     <row r="16" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="67" t="s">
+      <c r="B16" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="57" t="s">
         <v>29</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="31" t="s">
+      <c r="E16" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="39" t="s">
+      <c r="F16" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="59" t="s">
+      <c r="G16" s="51" t="s">
         <v>22</v>
       </c>
       <c r="H16" s="14"/>
@@ -1422,34 +1407,34 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="29"/>
-      <c r="T16" s="29"/>
-      <c r="U16" s="29"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="28"/>
     </row>
     <row r="17" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="67" t="s">
+      <c r="B17" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="57" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="31" t="s">
+      <c r="E17" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="39" t="s">
+      <c r="F17" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="60"/>
+      <c r="G17" s="52"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
@@ -1457,34 +1442,34 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="29"/>
-      <c r="T17" s="43"/>
-      <c r="U17" s="45"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="41"/>
+      <c r="U17" s="43"/>
     </row>
     <row r="18" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="67" t="s">
+      <c r="B18" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="57" t="s">
         <v>30</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="31" t="s">
+      <c r="E18" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="71" t="s">
-        <v>51</v>
-      </c>
-      <c r="G18" s="53" t="s">
+      <c r="F18" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="45" t="s">
         <v>32</v>
       </c>
       <c r="H18" s="14"/>
@@ -1494,33 +1479,33 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="29"/>
-      <c r="T18" s="43"/>
-      <c r="U18" s="45"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="28"/>
+      <c r="T18" s="41"/>
+      <c r="U18" s="43"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="67" t="s">
+      <c r="B19" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="57" t="s">
         <v>20</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="31" t="s">
+      <c r="E19" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="36"/>
-      <c r="G19" s="32" t="s">
-        <v>46</v>
+      <c r="F19" s="34"/>
+      <c r="G19" s="31" t="s">
+        <v>45</v>
       </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
@@ -1529,33 +1514,33 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="43"/>
-      <c r="U19" s="46"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="41"/>
+      <c r="U19" s="44"/>
     </row>
     <row r="20" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="68" t="s">
+      <c r="A20" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="67" t="s">
+      <c r="B20" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="31" t="s">
+      <c r="E20" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="36"/>
-      <c r="G20" s="32" t="s">
-        <v>45</v>
+      <c r="F20" s="34"/>
+      <c r="G20" s="31" t="s">
+        <v>44</v>
       </c>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -1564,29 +1549,29 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="46"/>
-      <c r="Q20" s="46"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="46"/>
-      <c r="T20" s="43"/>
-      <c r="U20" s="46"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="41"/>
+      <c r="U20" s="44"/>
     </row>
     <row r="21" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="68" t="s">
+      <c r="A21" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="67" t="s">
+      <c r="D21" s="4"/>
+      <c r="E21" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="36"/>
+      <c r="F21" s="34"/>
       <c r="G21" s="18" t="s">
         <v>38</v>
       </c>
@@ -1597,25 +1582,25 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="44"/>
-      <c r="R21" s="44"/>
-      <c r="S21" s="44"/>
-      <c r="T21" s="44"/>
-      <c r="U21" s="44"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="42"/>
+      <c r="S21" s="42"/>
+      <c r="T21" s="42"/>
+      <c r="U21" s="42"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="68" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="67" t="s">
+      <c r="A22" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="36"/>
+      <c r="D22" s="34"/>
       <c r="E22" s="13"/>
       <c r="F22" s="1"/>
       <c r="G22" s="18" t="s">
@@ -1628,25 +1613,25 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="44"/>
-      <c r="Q22" s="44"/>
-      <c r="R22" s="45"/>
-      <c r="S22" s="29"/>
-      <c r="T22" s="29"/>
-      <c r="U22" s="45"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="42"/>
+      <c r="R22" s="43"/>
+      <c r="S22" s="28"/>
+      <c r="T22" s="28"/>
+      <c r="U22" s="43"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="8" t="s">
+      <c r="B23" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="36"/>
+      <c r="D23" s="34"/>
       <c r="E23" s="4"/>
       <c r="F23" s="1"/>
       <c r="G23" s="19" t="s">
@@ -1659,29 +1644,29 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="29"/>
-      <c r="S23" s="45"/>
-      <c r="T23" s="29"/>
-      <c r="U23" s="29"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="43"/>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="28"/>
+      <c r="S23" s="43"/>
+      <c r="T23" s="28"/>
+      <c r="U23" s="28"/>
     </row>
     <row r="24" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="67" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="8" t="s">
+      <c r="B24" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="36"/>
+      <c r="D24" s="34"/>
       <c r="E24" s="4"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="27" t="s">
-        <v>41</v>
+      <c r="G24" s="26" t="s">
+        <v>48</v>
       </c>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
@@ -1690,25 +1675,25 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="29"/>
-      <c r="T24" s="43"/>
-      <c r="U24" s="29"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="28"/>
+      <c r="S24" s="28"/>
+      <c r="T24" s="41"/>
+      <c r="U24" s="28"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="67" t="s">
+      <c r="B25" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="36"/>
+      <c r="D25" s="34"/>
       <c r="E25" s="4"/>
       <c r="F25" s="1"/>
       <c r="G25" s="13"/>
@@ -1719,25 +1704,25 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="29"/>
-      <c r="S25" s="29"/>
-      <c r="T25" s="43"/>
-      <c r="U25" s="29"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="28"/>
+      <c r="S25" s="28"/>
+      <c r="T25" s="41"/>
+      <c r="U25" s="28"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="67" t="s">
+      <c r="B26" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="36"/>
+      <c r="C26" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="34"/>
       <c r="E26" s="4"/>
       <c r="F26" s="1"/>
       <c r="G26" s="4"/>
@@ -1748,25 +1733,25 @@
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="29"/>
-      <c r="S26" s="29"/>
-      <c r="T26" s="43"/>
-      <c r="U26" s="29"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="28"/>
+      <c r="S26" s="28"/>
+      <c r="T26" s="41"/>
+      <c r="U26" s="28"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="67" t="s">
+      <c r="B27" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" s="36"/>
+      <c r="C27" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="34"/>
       <c r="E27" s="4"/>
       <c r="F27" s="1"/>
       <c r="G27" s="3"/>
@@ -1777,25 +1762,25 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="29"/>
-      <c r="T27" s="43"/>
-      <c r="U27" s="29"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="28"/>
+      <c r="T27" s="41"/>
+      <c r="U27" s="28"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="67" t="s">
+      <c r="B28" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D28" s="36"/>
+      <c r="C28" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="34"/>
       <c r="E28" s="4"/>
       <c r="F28" s="1"/>
       <c r="G28" s="3"/>
@@ -1806,25 +1791,25 @@
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="29"/>
-      <c r="S28" s="29"/>
-      <c r="T28" s="43"/>
-      <c r="U28" s="46"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="28"/>
+      <c r="R28" s="28"/>
+      <c r="S28" s="28"/>
+      <c r="T28" s="41"/>
+      <c r="U28" s="44"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="67" t="s">
+      <c r="B29" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D29" s="28"/>
+      <c r="C29" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="27"/>
       <c r="E29" s="3"/>
       <c r="F29" s="1"/>
       <c r="G29" s="3"/>
@@ -1835,25 +1820,25 @@
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="29"/>
-      <c r="S29" s="29"/>
-      <c r="T29" s="46"/>
-      <c r="U29" s="44"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="28"/>
+      <c r="R29" s="28"/>
+      <c r="S29" s="28"/>
+      <c r="T29" s="44"/>
+      <c r="U29" s="42"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="68" t="s">
-        <v>51</v>
-      </c>
-      <c r="B30" s="67" t="s">
+      <c r="A30" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="28"/>
+      <c r="C30" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="27"/>
       <c r="E30" s="3"/>
       <c r="F30" s="1"/>
       <c r="G30" s="3"/>
@@ -1864,25 +1849,25 @@
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="29"/>
-      <c r="S30" s="29"/>
-      <c r="T30" s="46"/>
-      <c r="U30" s="29"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="28"/>
+      <c r="R30" s="28"/>
+      <c r="S30" s="28"/>
+      <c r="T30" s="44"/>
+      <c r="U30" s="28"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" s="68" t="s">
+      <c r="A31" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="67" t="s">
+      <c r="B31" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31" s="28"/>
+      <c r="C31" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="27"/>
       <c r="E31" s="3"/>
       <c r="F31" s="1"/>
       <c r="G31" s="3"/>
@@ -1893,23 +1878,23 @@
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="29"/>
-      <c r="Q31" s="29"/>
-      <c r="R31" s="29"/>
-      <c r="S31" s="29"/>
-      <c r="T31" s="46"/>
-      <c r="U31" s="29"/>
-    </row>
-    <row r="32" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="68" t="s">
+      <c r="O31" s="28"/>
+      <c r="P31" s="28"/>
+      <c r="Q31" s="28"/>
+      <c r="R31" s="28"/>
+      <c r="S31" s="28"/>
+      <c r="T31" s="44"/>
+      <c r="U31" s="28"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="67" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>22</v>
+      <c r="B32" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="57" t="s">
+        <v>37</v>
       </c>
       <c r="D32" s="14"/>
       <c r="E32" s="3"/>
@@ -1922,22 +1907,24 @@
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
-      <c r="O32" s="29"/>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
-      <c r="R32" s="46"/>
-      <c r="S32" s="29"/>
-      <c r="T32" s="46"/>
-      <c r="U32" s="45"/>
+      <c r="O32" s="28"/>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="28"/>
+      <c r="R32" s="44"/>
+      <c r="S32" s="28"/>
+      <c r="T32" s="44"/>
+      <c r="U32" s="43"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A33" s="68" t="s">
+      <c r="A33" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="61" t="s">
+      <c r="B33" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="13"/>
+      <c r="C33" s="57" t="s">
+        <v>21</v>
+      </c>
       <c r="D33" s="14"/>
       <c r="E33" s="3"/>
       <c r="F33" s="1"/>
@@ -1949,22 +1936,24 @@
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
-      <c r="O33" s="29"/>
-      <c r="P33" s="29"/>
-      <c r="Q33" s="29"/>
-      <c r="R33" s="46"/>
-      <c r="S33" s="46"/>
-      <c r="T33" s="46"/>
-      <c r="U33" s="45"/>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A34" s="68" t="s">
+      <c r="O33" s="28"/>
+      <c r="P33" s="28"/>
+      <c r="Q33" s="28"/>
+      <c r="R33" s="44"/>
+      <c r="S33" s="44"/>
+      <c r="T33" s="44"/>
+      <c r="U33" s="43"/>
+    </row>
+    <row r="34" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="61" t="s">
+      <c r="B34" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="4"/>
+      <c r="C34" s="69" t="s">
+        <v>22</v>
+      </c>
       <c r="D34" s="14"/>
       <c r="E34" s="3"/>
       <c r="F34" s="14"/>
@@ -1976,19 +1965,19 @@
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
-      <c r="O34" s="29"/>
-      <c r="P34" s="29"/>
-      <c r="Q34" s="29"/>
-      <c r="R34" s="46"/>
-      <c r="S34" s="46"/>
-      <c r="T34" s="46"/>
-      <c r="U34" s="29"/>
+      <c r="O34" s="28"/>
+      <c r="P34" s="28"/>
+      <c r="Q34" s="28"/>
+      <c r="R34" s="44"/>
+      <c r="S34" s="44"/>
+      <c r="T34" s="44"/>
+      <c r="U34" s="28"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A35" s="68" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="61" t="s">
+      <c r="A35" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="8" t="s">
         <v>39</v>
       </c>
       <c r="C35" s="3"/>
@@ -2003,19 +1992,19 @@
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
-      <c r="O35" s="29"/>
-      <c r="P35" s="29"/>
-      <c r="Q35" s="29"/>
-      <c r="R35" s="46"/>
-      <c r="S35" s="46"/>
-      <c r="T35" s="46"/>
-      <c r="U35" s="29"/>
+      <c r="O35" s="28"/>
+      <c r="P35" s="28"/>
+      <c r="Q35" s="28"/>
+      <c r="R35" s="44"/>
+      <c r="S35" s="44"/>
+      <c r="T35" s="44"/>
+      <c r="U35" s="28"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="61" t="s">
+      <c r="A36" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="8" t="s">
         <v>40</v>
       </c>
       <c r="C36" s="3"/>
@@ -2030,20 +2019,20 @@
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
-      <c r="O36" s="29"/>
-      <c r="P36" s="29"/>
-      <c r="Q36" s="29"/>
-      <c r="R36" s="46"/>
-      <c r="S36" s="46"/>
-      <c r="T36" s="46"/>
-      <c r="U36" s="46"/>
+      <c r="O36" s="28"/>
+      <c r="P36" s="28"/>
+      <c r="Q36" s="28"/>
+      <c r="R36" s="44"/>
+      <c r="S36" s="44"/>
+      <c r="T36" s="44"/>
+      <c r="U36" s="44"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" s="61" t="s">
-        <v>41</v>
+      <c r="A37" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="1"/>
@@ -2057,20 +2046,20 @@
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
-      <c r="O37" s="29"/>
-      <c r="P37" s="29"/>
-      <c r="Q37" s="29"/>
-      <c r="R37" s="46"/>
-      <c r="S37" s="46"/>
-      <c r="T37" s="46"/>
-      <c r="U37" s="46"/>
+      <c r="O37" s="28"/>
+      <c r="P37" s="28"/>
+      <c r="Q37" s="28"/>
+      <c r="R37" s="44"/>
+      <c r="S37" s="44"/>
+      <c r="T37" s="44"/>
+      <c r="U37" s="44"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="61" t="s">
         <v>34</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="1"/>
@@ -2084,20 +2073,20 @@
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
-      <c r="O38" s="29"/>
-      <c r="P38" s="29"/>
-      <c r="Q38" s="29"/>
-      <c r="R38" s="46"/>
-      <c r="S38" s="46"/>
-      <c r="T38" s="46"/>
-      <c r="U38" s="29"/>
+      <c r="O38" s="28"/>
+      <c r="P38" s="28"/>
+      <c r="Q38" s="28"/>
+      <c r="R38" s="44"/>
+      <c r="S38" s="44"/>
+      <c r="T38" s="44"/>
+      <c r="U38" s="28"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A39" s="68" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="61" t="s">
+      <c r="A39" s="3" t="s">
         <v>35</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="1"/>
@@ -2111,20 +2100,20 @@
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
-      <c r="O39" s="29"/>
-      <c r="P39" s="29"/>
-      <c r="Q39" s="29"/>
-      <c r="R39" s="46"/>
-      <c r="S39" s="46"/>
-      <c r="T39" s="46"/>
-      <c r="U39" s="29"/>
+      <c r="O39" s="28"/>
+      <c r="P39" s="28"/>
+      <c r="Q39" s="28"/>
+      <c r="R39" s="44"/>
+      <c r="S39" s="44"/>
+      <c r="T39" s="44"/>
+      <c r="U39" s="28"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B40" s="61" t="s">
         <v>36</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="1"/>
@@ -2138,20 +2127,20 @@
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
-      <c r="O40" s="29"/>
-      <c r="P40" s="29"/>
-      <c r="Q40" s="29"/>
-      <c r="R40" s="29"/>
-      <c r="S40" s="29"/>
-      <c r="T40" s="46"/>
-      <c r="U40" s="29"/>
+      <c r="O40" s="28"/>
+      <c r="P40" s="28"/>
+      <c r="Q40" s="28"/>
+      <c r="R40" s="28"/>
+      <c r="S40" s="28"/>
+      <c r="T40" s="44"/>
+      <c r="U40" s="28"/>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A41" s="68" t="s">
-        <v>22</v>
-      </c>
-      <c r="B41" s="61" t="s">
+      <c r="A41" s="58" t="s">
         <v>37</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="1"/>
@@ -2165,18 +2154,20 @@
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
-      <c r="O41" s="29"/>
-      <c r="P41" s="29"/>
-      <c r="Q41" s="29"/>
-      <c r="R41" s="29"/>
-      <c r="S41" s="29"/>
-      <c r="T41" s="46"/>
-      <c r="U41" s="29"/>
+      <c r="O41" s="28"/>
+      <c r="P41" s="28"/>
+      <c r="Q41" s="28"/>
+      <c r="R41" s="28"/>
+      <c r="S41" s="28"/>
+      <c r="T41" s="44"/>
+      <c r="U41" s="28"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
-      <c r="B42" s="61" t="s">
+      <c r="A42" s="3" t="s">
         <v>21</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="1"/>
@@ -2190,24 +2181,26 @@
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
-      <c r="O42" s="29"/>
-      <c r="P42" s="29"/>
-      <c r="Q42" s="29"/>
-      <c r="R42" s="29"/>
-      <c r="S42" s="29"/>
-      <c r="T42" s="46"/>
-      <c r="U42" s="29"/>
-    </row>
-    <row r="43" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="69"/>
-      <c r="B43" s="70" t="s">
+      <c r="O42" s="28"/>
+      <c r="P42" s="28"/>
+      <c r="Q42" s="28"/>
+      <c r="R42" s="28"/>
+      <c r="S42" s="28"/>
+      <c r="T42" s="44"/>
+      <c r="U42" s="28"/>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A43" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="5"/>
+      <c r="B43" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="4"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -2215,22 +2208,24 @@
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
-      <c r="O43" s="29"/>
-      <c r="P43" s="29"/>
-      <c r="Q43" s="46"/>
-      <c r="R43" s="29"/>
-      <c r="S43" s="29"/>
-      <c r="T43" s="46"/>
-      <c r="U43" s="29"/>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
+      <c r="O43" s="28"/>
+      <c r="P43" s="28"/>
+      <c r="Q43" s="44"/>
+      <c r="R43" s="28"/>
+      <c r="S43" s="28"/>
+      <c r="T43" s="44"/>
+      <c r="U43" s="28"/>
+    </row>
+    <row r="44" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="59"/>
+      <c r="B44" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="5"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -2238,17 +2233,19 @@
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
-      <c r="O44" s="29"/>
-      <c r="P44" s="29"/>
-      <c r="Q44" s="46"/>
-      <c r="R44" s="29"/>
-      <c r="S44" s="29"/>
-      <c r="T44" s="46"/>
-      <c r="U44" s="29"/>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="O44" s="28"/>
+      <c r="P44" s="28"/>
+      <c r="Q44" s="44"/>
+      <c r="R44" s="28"/>
+      <c r="S44" s="28"/>
+      <c r="T44" s="44"/>
+      <c r="U44" s="28"/>
+    </row>
+    <row r="45" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="14"/>
-      <c r="B45" s="1"/>
+      <c r="B45" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -2261,13 +2258,13 @@
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
-      <c r="O45" s="29"/>
-      <c r="P45" s="29"/>
-      <c r="Q45" s="46"/>
-      <c r="R45" s="29"/>
-      <c r="S45" s="29"/>
-      <c r="T45" s="29"/>
-      <c r="U45" s="29"/>
+      <c r="O45" s="28"/>
+      <c r="P45" s="28"/>
+      <c r="Q45" s="44"/>
+      <c r="R45" s="28"/>
+      <c r="S45" s="28"/>
+      <c r="T45" s="28"/>
+      <c r="U45" s="28"/>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="14"/>
@@ -2284,13 +2281,13 @@
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
-      <c r="O46" s="29"/>
-      <c r="P46" s="29"/>
-      <c r="Q46" s="29"/>
-      <c r="R46" s="29"/>
-      <c r="S46" s="29"/>
-      <c r="T46" s="29"/>
-      <c r="U46" s="29"/>
+      <c r="O46" s="28"/>
+      <c r="P46" s="28"/>
+      <c r="Q46" s="28"/>
+      <c r="R46" s="28"/>
+      <c r="S46" s="28"/>
+      <c r="T46" s="28"/>
+      <c r="U46" s="28"/>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="14"/>
@@ -2307,13 +2304,13 @@
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
-      <c r="O47" s="29"/>
-      <c r="P47" s="29"/>
-      <c r="Q47" s="29"/>
-      <c r="R47" s="29"/>
-      <c r="S47" s="29"/>
-      <c r="T47" s="29"/>
-      <c r="U47" s="29"/>
+      <c r="O47" s="28"/>
+      <c r="P47" s="28"/>
+      <c r="Q47" s="28"/>
+      <c r="R47" s="28"/>
+      <c r="S47" s="28"/>
+      <c r="T47" s="28"/>
+      <c r="U47" s="28"/>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="14"/>
@@ -2330,13 +2327,13 @@
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
-      <c r="O48" s="29"/>
-      <c r="P48" s="29"/>
-      <c r="Q48" s="46"/>
-      <c r="R48" s="46"/>
-      <c r="S48" s="46"/>
-      <c r="T48" s="46"/>
-      <c r="U48" s="46"/>
+      <c r="O48" s="28"/>
+      <c r="P48" s="28"/>
+      <c r="Q48" s="44"/>
+      <c r="R48" s="44"/>
+      <c r="S48" s="44"/>
+      <c r="T48" s="44"/>
+      <c r="U48" s="44"/>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="14"/>
@@ -2353,13 +2350,13 @@
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
-      <c r="O49" s="29"/>
-      <c r="P49" s="29"/>
-      <c r="Q49" s="46"/>
-      <c r="R49" s="46"/>
-      <c r="S49" s="46"/>
-      <c r="T49" s="46"/>
-      <c r="U49" s="46"/>
+      <c r="O49" s="28"/>
+      <c r="P49" s="28"/>
+      <c r="Q49" s="44"/>
+      <c r="R49" s="44"/>
+      <c r="S49" s="44"/>
+      <c r="T49" s="44"/>
+      <c r="U49" s="44"/>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="14"/>
@@ -2376,13 +2373,13 @@
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
-      <c r="O50" s="29"/>
-      <c r="P50" s="29"/>
-      <c r="Q50" s="46"/>
-      <c r="R50" s="46"/>
-      <c r="S50" s="46"/>
-      <c r="T50" s="46"/>
-      <c r="U50" s="46"/>
+      <c r="O50" s="28"/>
+      <c r="P50" s="28"/>
+      <c r="Q50" s="44"/>
+      <c r="R50" s="44"/>
+      <c r="S50" s="44"/>
+      <c r="T50" s="44"/>
+      <c r="U50" s="44"/>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="14"/>
@@ -2399,13 +2396,13 @@
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
-      <c r="O51" s="29"/>
-      <c r="P51" s="29"/>
-      <c r="Q51" s="46"/>
-      <c r="R51" s="46"/>
-      <c r="S51" s="46"/>
-      <c r="T51" s="46"/>
-      <c r="U51" s="46"/>
+      <c r="O51" s="28"/>
+      <c r="P51" s="28"/>
+      <c r="Q51" s="44"/>
+      <c r="R51" s="44"/>
+      <c r="S51" s="44"/>
+      <c r="T51" s="44"/>
+      <c r="U51" s="44"/>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="14"/>
@@ -2422,13 +2419,13 @@
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
-      <c r="O52" s="29"/>
-      <c r="P52" s="29"/>
-      <c r="Q52" s="46"/>
-      <c r="R52" s="46"/>
-      <c r="S52" s="46"/>
-      <c r="T52" s="46"/>
-      <c r="U52" s="46"/>
+      <c r="O52" s="28"/>
+      <c r="P52" s="28"/>
+      <c r="Q52" s="44"/>
+      <c r="R52" s="44"/>
+      <c r="S52" s="44"/>
+      <c r="T52" s="44"/>
+      <c r="U52" s="44"/>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="14"/>
@@ -2445,13 +2442,13 @@
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
-      <c r="O53" s="29"/>
-      <c r="P53" s="29"/>
-      <c r="Q53" s="46"/>
-      <c r="R53" s="46"/>
-      <c r="S53" s="46"/>
-      <c r="T53" s="46"/>
-      <c r="U53" s="46"/>
+      <c r="O53" s="28"/>
+      <c r="P53" s="28"/>
+      <c r="Q53" s="44"/>
+      <c r="R53" s="44"/>
+      <c r="S53" s="44"/>
+      <c r="T53" s="44"/>
+      <c r="U53" s="44"/>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="14"/>
@@ -2550,7 +2547,7 @@
       <c r="N59" s="1"/>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A60" s="29"/>
+      <c r="A60" s="28"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -2678,7 +2675,7 @@
       <c r="N67" s="1"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68" s="29"/>
+      <c r="A68" s="28"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2758,7 +2755,7 @@
       <c r="N72" s="1"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73" s="29"/>
+      <c r="A73" s="28"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2822,7 +2819,7 @@
       <c r="N76" s="1"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A77" s="29"/>
+      <c r="A77" s="28"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>

--- a/Design/Normalisation.xlsx
+++ b/Design/Normalisation.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Imran Rahman\Documents\Year 13\Computing\git\COMP4Coursework\Design\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
@@ -966,7 +971,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -976,7 +981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>

--- a/Design/Normalisation.xlsx
+++ b/Design/Normalisation.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="51">
   <si>
     <t>UNF</t>
   </si>
@@ -981,8 +981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1644,8 +1644,8 @@
       <c r="D22" s="4"/>
       <c r="E22" s="62"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="64" t="s">
-        <v>39</v>
+      <c r="G22" s="65" t="s">
+        <v>40</v>
       </c>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
@@ -1662,7 +1662,7 @@
       <c r="T22" s="25"/>
       <c r="U22" s="38"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="69" t="s">
         <v>24</v>
       </c>
@@ -1675,8 +1675,8 @@
       <c r="D23" s="4"/>
       <c r="E23" s="1"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="65" t="s">
-        <v>40</v>
+      <c r="G23" s="66" t="s">
+        <v>48</v>
       </c>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
@@ -1693,7 +1693,7 @@
       <c r="T23" s="25"/>
       <c r="U23" s="25"/>
     </row>
-    <row r="24" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="69" t="s">
         <v>25</v>
       </c>
@@ -1706,9 +1706,7 @@
       <c r="D24" s="4"/>
       <c r="E24" s="1"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="66" t="s">
-        <v>48</v>
-      </c>
+      <c r="G24" s="13"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
@@ -1737,7 +1735,7 @@
       <c r="D25" s="4"/>
       <c r="E25" s="1"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="13"/>
+      <c r="G25" s="3"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
@@ -1766,7 +1764,7 @@
       <c r="D26" s="4"/>
       <c r="E26" s="1"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
+      <c r="G26" s="3"/>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
